--- a/acervo separado/Acervo_Desenho_arquitetonico.xlsx
+++ b/acervo separado/Acervo_Desenho_arquitetonico.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\denni\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\denni\Desktop\projeto\acervo separado\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{04F7CD82-95B8-45CB-97B2-99F9E58E712F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44DE312F-B757-4033-BB5D-0AE5F3F6C309}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Acervo" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,14 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Acervo!$A$1:$S$68</definedName>
     <definedName name="acervo_be" localSheetId="0">Acervo!$A$1:$S$68</definedName>
   </definedNames>
-  <calcPr calcId="162913" iterateDelta="1E-4"/>
+  <calcPr calcId="181029" iterateDelta="1E-4"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -134,9 +141,6 @@
     <t xml:space="preserve"> csd</t>
   </si>
   <si>
-    <t>Nanquim/papel</t>
-  </si>
-  <si>
     <t>1881</t>
   </si>
   <si>
@@ -149,9 +153,6 @@
     <t>SILVA, Francisco Joaquim Bethencourt da (1831-1911)</t>
   </si>
   <si>
-    <t>Grafite e crayon/papel</t>
-  </si>
-  <si>
     <t>1923</t>
   </si>
   <si>
@@ -170,9 +171,6 @@
     <t>GAMA, Raul Lessa Saldanha da (1882-1945)</t>
   </si>
   <si>
-    <t>Sépia/papel</t>
-  </si>
-  <si>
     <t xml:space="preserve"> ileg. cie</t>
   </si>
   <si>
@@ -245,9 +243,6 @@
     <t>Corte e fachada de balneário</t>
   </si>
   <si>
-    <t>Nanquim e aquarela/papel</t>
-  </si>
-  <si>
     <t>22,0 x 36,4 cm</t>
   </si>
   <si>
@@ -350,9 +345,6 @@
     <t>Planta baixa e elevação de monumento</t>
   </si>
   <si>
-    <t>Nanquim e tinta ferrogálica/papel</t>
-  </si>
-  <si>
     <t>50,7 x 30,4 cm</t>
   </si>
   <si>
@@ -362,9 +354,6 @@
     <t>Fachada do Conservatório de Música</t>
   </si>
   <si>
-    <t>Nanquim e sépia/papel</t>
-  </si>
-  <si>
     <t>16,4 x 38,8 cm</t>
   </si>
   <si>
@@ -425,9 +414,6 @@
     <t>906</t>
   </si>
   <si>
-    <t>Aguada de sépia/papel</t>
-  </si>
-  <si>
     <t>13,0 x 10,5 cm</t>
   </si>
   <si>
@@ -440,9 +426,6 @@
     <t>Estudo de ornamento do Arco de Trajano em Benevento</t>
   </si>
   <si>
-    <t>Grafite e nanquim/papel</t>
-  </si>
-  <si>
     <t>13,0 x 14,5 cm</t>
   </si>
   <si>
@@ -473,9 +456,6 @@
     <t>Projeto para o monumento eqüestre a D. Pedro I</t>
   </si>
   <si>
-    <t>Grafite e aquarela/papel</t>
-  </si>
-  <si>
     <t>36,3 x 60,4 cm</t>
   </si>
   <si>
@@ -518,9 +498,6 @@
     <t>917</t>
   </si>
   <si>
-    <t>Crayon e aquarela/papel</t>
-  </si>
-  <si>
     <t>49,0 x 86,0 cm</t>
   </si>
   <si>
@@ -563,9 +540,6 @@
     <t>Projeto de monumento à República  e a Deodoro da Fonseca</t>
   </si>
   <si>
-    <t>Nanquim e guache/papel</t>
-  </si>
-  <si>
     <t>56,5 x 77,0 cm</t>
   </si>
   <si>
@@ -578,9 +552,6 @@
     <t>Planta baixa de edifício (Conservatório de Música "?")</t>
   </si>
   <si>
-    <t>Nanquim, grafite e aquarela/papel</t>
-  </si>
-  <si>
     <t>58,0 x 80,0 cm</t>
   </si>
   <si>
@@ -626,9 +597,6 @@
     <t>Planta de hospício</t>
   </si>
   <si>
-    <t>Grafite, nanquim, aquarela e carvão/papel</t>
-  </si>
-  <si>
     <t>54,5 x 34,0 cm</t>
   </si>
   <si>
@@ -770,9 +738,6 @@
     <t>Projeto de um teatro  (vista geral)</t>
   </si>
   <si>
-    <t>Guache e aquarela/papel</t>
-  </si>
-  <si>
     <t>56,4 x 98,0 cm</t>
   </si>
   <si>
@@ -827,9 +792,6 @@
     <t>Projeto  da sede do Botafogo Futebol Clube</t>
   </si>
   <si>
-    <t>Heliogravura/papel</t>
-  </si>
-  <si>
     <t>63,2 x 104,6 cm</t>
   </si>
   <si>
@@ -1224,6 +1186,51 @@
   </si>
   <si>
     <t>65,9 cm</t>
+  </si>
+  <si>
+    <t>mattec_212</t>
+  </si>
+  <si>
+    <t>mattec_205</t>
+  </si>
+  <si>
+    <t>mattec_210</t>
+  </si>
+  <si>
+    <t>mattec_209</t>
+  </si>
+  <si>
+    <t>mattec_8</t>
+  </si>
+  <si>
+    <t>mattec_125</t>
+  </si>
+  <si>
+    <t>mattec_121</t>
+  </si>
+  <si>
+    <t>mattec_122</t>
+  </si>
+  <si>
+    <t>mattec_82</t>
+  </si>
+  <si>
+    <t>mattec_207</t>
+  </si>
+  <si>
+    <t>mattec_211</t>
+  </si>
+  <si>
+    <t>mattec_127</t>
+  </si>
+  <si>
+    <t>mattec_135</t>
+  </si>
+  <si>
+    <t>mattec_279</t>
+  </si>
+  <si>
+    <t>mattec_138</t>
   </si>
 </sst>
 </file>
@@ -1609,7 +1616,7 @@
   <dimension ref="A1:W68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="H2" sqref="H2:H68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1653,28 +1660,28 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
       <c r="G1" t="s">
         <v>5</v>
       </c>
       <c r="H1" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="I1" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="J1" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
       <c r="K1" t="s">
         <v>6</v>
       </c>
       <c r="L1" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
       <c r="M1" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="N1" t="s">
         <v>7</v>
@@ -1695,16 +1702,16 @@
         <v>12</v>
       </c>
       <c r="T1" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="U1" t="s">
-        <v>284</v>
+        <v>269</v>
       </c>
       <c r="V1" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="W1" t="s">
-        <v>284</v>
+        <v>269</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
@@ -1712,26 +1719,26 @@
         <v>881</v>
       </c>
       <c r="B2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s">
+        <v>385</v>
+      </c>
+      <c r="K2" t="s">
         <v>50</v>
       </c>
-      <c r="C2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" t="s">
-        <v>36</v>
-      </c>
-      <c r="K2" t="s">
-        <v>53</v>
-      </c>
       <c r="L2" t="s">
         <v>14</v>
       </c>
@@ -1739,16 +1746,16 @@
         <v>15</v>
       </c>
       <c r="N2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="O2" t="s">
         <v>16</v>
       </c>
       <c r="P2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="Q2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="R2" t="s">
         <v>18</v>
@@ -1762,10 +1769,10 @@
         <v>45,3 cm</v>
       </c>
       <c r="V2" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="W2" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
@@ -1773,25 +1780,25 @@
         <v>882</v>
       </c>
       <c r="B3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C3" t="s">
         <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G3" t="s">
         <v>13</v>
       </c>
       <c r="H3" t="s">
-        <v>36</v>
+        <v>385</v>
       </c>
       <c r="K3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="L3" t="s">
         <v>14</v>
@@ -1800,13 +1807,13 @@
         <v>15</v>
       </c>
       <c r="N3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="O3" t="s">
         <v>19</v>
       </c>
       <c r="Q3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="R3" t="s">
         <v>18</v>
@@ -1820,10 +1827,10 @@
         <v>78,5 cm</v>
       </c>
       <c r="V3" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
       <c r="W3" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
@@ -1831,29 +1838,29 @@
         <v>883</v>
       </c>
       <c r="B4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" t="s">
+        <v>385</v>
+      </c>
+      <c r="K4" t="s">
         <v>59</v>
       </c>
-      <c r="C4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E4" t="s">
-        <v>60</v>
-      </c>
-      <c r="F4" t="s">
-        <v>61</v>
-      </c>
-      <c r="G4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" t="s">
-        <v>36</v>
-      </c>
-      <c r="K4" t="s">
-        <v>62</v>
-      </c>
       <c r="L4" t="s">
         <v>14</v>
       </c>
@@ -1861,16 +1868,16 @@
         <v>15</v>
       </c>
       <c r="N4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="O4" t="s">
         <v>19</v>
       </c>
       <c r="P4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="Q4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="R4" t="s">
         <v>18</v>
@@ -1884,10 +1891,10 @@
         <v>96,3 cm</v>
       </c>
       <c r="V4" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="W4" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
@@ -1895,28 +1902,28 @@
         <v>884</v>
       </c>
       <c r="B5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C5" t="s">
         <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E5" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G5" t="s">
         <v>13</v>
       </c>
       <c r="H5" t="s">
-        <v>36</v>
+        <v>385</v>
       </c>
       <c r="K5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="L5" t="s">
         <v>14</v>
@@ -1925,16 +1932,16 @@
         <v>15</v>
       </c>
       <c r="N5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="O5" t="s">
         <v>19</v>
       </c>
       <c r="P5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="Q5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="R5" t="s">
         <v>18</v>
@@ -1948,10 +1955,10 @@
         <v>96,3 cm</v>
       </c>
       <c r="V5" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="W5" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
@@ -1959,28 +1966,28 @@
         <v>885</v>
       </c>
       <c r="B6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C6" t="s">
         <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F6" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="G6" t="s">
         <v>13</v>
       </c>
       <c r="H6" t="s">
-        <v>36</v>
+        <v>385</v>
       </c>
       <c r="K6" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="L6" t="s">
         <v>14</v>
@@ -1989,13 +1996,13 @@
         <v>15</v>
       </c>
       <c r="N6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="O6" t="s">
         <v>16</v>
       </c>
       <c r="Q6" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="R6" t="s">
         <v>18</v>
@@ -2009,10 +2016,10 @@
         <v>61,0 cm</v>
       </c>
       <c r="V6" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="W6" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
@@ -2020,25 +2027,25 @@
         <v>886</v>
       </c>
       <c r="B7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C7" t="s">
         <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E7" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G7" t="s">
         <v>13</v>
       </c>
       <c r="H7" t="s">
-        <v>36</v>
+        <v>385</v>
       </c>
       <c r="K7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="L7" t="s">
         <v>14</v>
@@ -2047,13 +2054,13 @@
         <v>15</v>
       </c>
       <c r="N7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="O7" t="s">
         <v>19</v>
       </c>
       <c r="Q7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="R7" t="s">
         <v>18</v>
@@ -2067,10 +2074,10 @@
         <v>51,0 cm</v>
       </c>
       <c r="V7" t="s">
-        <v>293</v>
+        <v>278</v>
       </c>
       <c r="W7" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
@@ -2078,25 +2085,25 @@
         <v>887</v>
       </c>
       <c r="B8" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C8" t="s">
         <v>21</v>
       </c>
       <c r="D8" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E8" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G8" t="s">
         <v>13</v>
       </c>
       <c r="H8" t="s">
-        <v>73</v>
+        <v>386</v>
       </c>
       <c r="K8" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="L8" t="s">
         <v>14</v>
@@ -2105,13 +2112,13 @@
         <v>15</v>
       </c>
       <c r="N8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="O8" t="s">
         <v>19</v>
       </c>
       <c r="Q8" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="R8" t="s">
         <v>18</v>
@@ -2125,10 +2132,10 @@
         <v>36,4 cm</v>
       </c>
       <c r="V8" t="s">
-        <v>295</v>
+        <v>280</v>
       </c>
       <c r="W8" t="s">
-        <v>296</v>
+        <v>281</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
@@ -2136,26 +2143,26 @@
         <v>888</v>
       </c>
       <c r="B9" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C9" t="s">
         <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E9" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G9" t="s">
         <v>13</v>
       </c>
       <c r="H9" t="s">
+        <v>386</v>
+      </c>
+      <c r="K9" t="s">
         <v>73</v>
       </c>
-      <c r="K9" t="s">
-        <v>77</v>
-      </c>
       <c r="L9" t="s">
         <v>14</v>
       </c>
@@ -2163,13 +2170,13 @@
         <v>15</v>
       </c>
       <c r="N9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="O9" t="s">
         <v>20</v>
       </c>
       <c r="Q9" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="R9" t="s">
         <v>18</v>
@@ -2183,10 +2190,10 @@
         <v>14,0 cm</v>
       </c>
       <c r="V9" t="s">
-        <v>297</v>
+        <v>282</v>
       </c>
       <c r="W9" t="s">
-        <v>298</v>
+        <v>283</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
@@ -2194,25 +2201,25 @@
         <v>889</v>
       </c>
       <c r="B10" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C10" t="s">
         <v>21</v>
       </c>
       <c r="D10" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E10" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="G10" t="s">
         <v>13</v>
       </c>
       <c r="H10" t="s">
-        <v>36</v>
+        <v>385</v>
       </c>
       <c r="K10" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="L10" t="s">
         <v>14</v>
@@ -2221,13 +2228,13 @@
         <v>15</v>
       </c>
       <c r="N10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="O10" t="s">
         <v>19</v>
       </c>
       <c r="Q10" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="R10" t="s">
         <v>18</v>
@@ -2241,10 +2248,10 @@
         <v>26,0 cm</v>
       </c>
       <c r="V10" t="s">
-        <v>299</v>
+        <v>284</v>
       </c>
       <c r="W10" t="s">
-        <v>300</v>
+        <v>285</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
@@ -2252,25 +2259,25 @@
         <v>890</v>
       </c>
       <c r="B11" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C11" t="s">
         <v>21</v>
       </c>
       <c r="D11" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E11" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G11" t="s">
         <v>13</v>
       </c>
       <c r="H11" t="s">
-        <v>36</v>
+        <v>385</v>
       </c>
       <c r="K11" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="L11" t="s">
         <v>14</v>
@@ -2279,13 +2286,13 @@
         <v>15</v>
       </c>
       <c r="N11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="O11" t="s">
         <v>19</v>
       </c>
       <c r="Q11" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="R11" t="s">
         <v>18</v>
@@ -2299,10 +2306,10 @@
         <v>34,9 cm</v>
       </c>
       <c r="V11" t="s">
-        <v>301</v>
+        <v>286</v>
       </c>
       <c r="W11" t="s">
-        <v>302</v>
+        <v>287</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
@@ -2310,25 +2317,25 @@
         <v>891</v>
       </c>
       <c r="B12" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C12" t="s">
         <v>21</v>
       </c>
       <c r="D12" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E12" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G12" t="s">
         <v>13</v>
       </c>
       <c r="H12" t="s">
-        <v>73</v>
+        <v>386</v>
       </c>
       <c r="K12" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="L12" t="s">
         <v>14</v>
@@ -2337,13 +2344,13 @@
         <v>15</v>
       </c>
       <c r="N12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="O12" t="s">
         <v>19</v>
       </c>
       <c r="Q12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="R12" t="s">
         <v>18</v>
@@ -2357,10 +2364,10 @@
         <v>52,5 cm</v>
       </c>
       <c r="V12" t="s">
-        <v>303</v>
+        <v>288</v>
       </c>
       <c r="W12" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
@@ -2368,25 +2375,25 @@
         <v>892</v>
       </c>
       <c r="B13" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C13" t="s">
         <v>21</v>
       </c>
       <c r="D13" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E13" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="G13" t="s">
         <v>13</v>
       </c>
       <c r="H13" t="s">
-        <v>73</v>
+        <v>386</v>
       </c>
       <c r="K13" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="L13" t="s">
         <v>14</v>
@@ -2395,13 +2402,13 @@
         <v>15</v>
       </c>
       <c r="N13" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="O13" t="s">
         <v>19</v>
       </c>
       <c r="Q13" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="R13" t="s">
         <v>18</v>
@@ -2415,10 +2422,10 @@
         <v>40,4 cm</v>
       </c>
       <c r="V13" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="W13" t="s">
-        <v>306</v>
+        <v>291</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
@@ -2426,28 +2433,28 @@
         <v>893</v>
       </c>
       <c r="B14" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C14" t="s">
         <v>21</v>
       </c>
       <c r="D14" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E14" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F14" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="G14" t="s">
         <v>34</v>
       </c>
       <c r="H14" t="s">
-        <v>36</v>
+        <v>385</v>
       </c>
       <c r="K14" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="L14" t="s">
         <v>14</v>
@@ -2456,13 +2463,13 @@
         <v>15</v>
       </c>
       <c r="N14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="O14" t="s">
         <v>16</v>
       </c>
       <c r="Q14" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="R14" t="s">
         <v>18</v>
@@ -2476,10 +2483,10 @@
         <v>49,2 cm</v>
       </c>
       <c r="V14" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="W14" t="s">
-        <v>308</v>
+        <v>293</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
@@ -2487,25 +2494,25 @@
         <v>894</v>
       </c>
       <c r="B15" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C15" t="s">
         <v>21</v>
       </c>
       <c r="D15" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E15" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="G15" t="s">
         <v>13</v>
       </c>
       <c r="H15" t="s">
-        <v>36</v>
+        <v>385</v>
       </c>
       <c r="K15" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="L15" t="s">
         <v>14</v>
@@ -2514,13 +2521,13 @@
         <v>15</v>
       </c>
       <c r="N15" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="O15" t="s">
         <v>19</v>
       </c>
       <c r="Q15" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="R15" t="s">
         <v>18</v>
@@ -2534,10 +2541,10 @@
         <v>60,6 cm</v>
       </c>
       <c r="V15" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="W15" t="s">
-        <v>310</v>
+        <v>295</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
@@ -2545,25 +2552,25 @@
         <v>895</v>
       </c>
       <c r="B16" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C16" t="s">
         <v>21</v>
       </c>
       <c r="D16" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E16" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="G16" t="s">
         <v>13</v>
       </c>
       <c r="H16" t="s">
-        <v>73</v>
+        <v>386</v>
       </c>
       <c r="K16" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="L16" t="s">
         <v>14</v>
@@ -2572,13 +2579,13 @@
         <v>15</v>
       </c>
       <c r="N16" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="O16" t="s">
         <v>19</v>
       </c>
       <c r="Q16" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="R16" t="s">
         <v>18</v>
@@ -2592,10 +2599,10 @@
         <v>21,7 cm</v>
       </c>
       <c r="V16" t="s">
-        <v>311</v>
+        <v>296</v>
       </c>
       <c r="W16" t="s">
-        <v>312</v>
+        <v>297</v>
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
@@ -2603,25 +2610,25 @@
         <v>896</v>
       </c>
       <c r="B17" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C17" t="s">
         <v>21</v>
       </c>
       <c r="D17" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E17" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G17" t="s">
         <v>13</v>
       </c>
       <c r="H17" t="s">
-        <v>73</v>
+        <v>386</v>
       </c>
       <c r="K17" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="L17" t="s">
         <v>14</v>
@@ -2630,13 +2637,13 @@
         <v>15</v>
       </c>
       <c r="N17" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="O17" t="s">
         <v>19</v>
       </c>
       <c r="Q17" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="R17" t="s">
         <v>18</v>
@@ -2650,10 +2657,10 @@
         <v>60,5 cm</v>
       </c>
       <c r="V17" t="s">
-        <v>313</v>
+        <v>298</v>
       </c>
       <c r="W17" t="s">
-        <v>314</v>
+        <v>299</v>
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
@@ -2661,25 +2668,25 @@
         <v>897</v>
       </c>
       <c r="B18" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C18" t="s">
         <v>21</v>
       </c>
       <c r="D18" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E18" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="G18" t="s">
         <v>13</v>
       </c>
       <c r="H18" t="s">
-        <v>36</v>
+        <v>385</v>
       </c>
       <c r="K18" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="L18" t="s">
         <v>14</v>
@@ -2688,13 +2695,13 @@
         <v>15</v>
       </c>
       <c r="N18" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="O18" t="s">
         <v>19</v>
       </c>
       <c r="Q18" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="R18" t="s">
         <v>18</v>
@@ -2708,10 +2715,10 @@
         <v>50,9 cm</v>
       </c>
       <c r="V18" t="s">
-        <v>315</v>
+        <v>300</v>
       </c>
       <c r="W18" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
@@ -2719,25 +2726,25 @@
         <v>898</v>
       </c>
       <c r="B19" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C19" t="s">
         <v>21</v>
       </c>
       <c r="D19" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E19" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G19" t="s">
         <v>13</v>
       </c>
       <c r="H19" t="s">
-        <v>108</v>
+        <v>387</v>
       </c>
       <c r="K19" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="L19" t="s">
         <v>14</v>
@@ -2746,13 +2753,13 @@
         <v>15</v>
       </c>
       <c r="N19" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="O19" t="s">
         <v>16</v>
       </c>
       <c r="Q19" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="R19" t="s">
         <v>18</v>
@@ -2766,10 +2773,10 @@
         <v>30,4 cm</v>
       </c>
       <c r="V19" t="s">
-        <v>317</v>
+        <v>302</v>
       </c>
       <c r="W19" t="s">
-        <v>318</v>
+        <v>303</v>
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
@@ -2777,25 +2784,25 @@
         <v>899</v>
       </c>
       <c r="B20" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C20" t="s">
         <v>21</v>
       </c>
       <c r="D20" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E20" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="G20" t="s">
         <v>13</v>
       </c>
       <c r="H20" t="s">
-        <v>112</v>
+        <v>388</v>
       </c>
       <c r="K20" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="L20" t="s">
         <v>14</v>
@@ -2804,13 +2811,13 @@
         <v>15</v>
       </c>
       <c r="N20" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="O20" t="s">
         <v>19</v>
       </c>
       <c r="Q20" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="R20" t="s">
         <v>18</v>
@@ -2824,10 +2831,10 @@
         <v>38,8 cm</v>
       </c>
       <c r="V20" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="W20" t="s">
-        <v>320</v>
+        <v>305</v>
       </c>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.25">
@@ -2835,25 +2842,25 @@
         <v>900</v>
       </c>
       <c r="B21" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C21" t="s">
         <v>21</v>
       </c>
       <c r="D21" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E21" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="G21" t="s">
         <v>13</v>
       </c>
       <c r="H21" t="s">
-        <v>36</v>
+        <v>385</v>
       </c>
       <c r="K21" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="L21" t="s">
         <v>14</v>
@@ -2862,13 +2869,13 @@
         <v>15</v>
       </c>
       <c r="N21" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="O21" t="s">
         <v>19</v>
       </c>
       <c r="Q21" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="R21" t="s">
         <v>18</v>
@@ -2882,10 +2889,10 @@
         <v>98,9 cm</v>
       </c>
       <c r="V21" t="s">
-        <v>321</v>
+        <v>306</v>
       </c>
       <c r="W21" t="s">
-        <v>322</v>
+        <v>307</v>
       </c>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.25">
@@ -2893,25 +2900,25 @@
         <v>901</v>
       </c>
       <c r="B22" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C22" t="s">
         <v>21</v>
       </c>
       <c r="D22" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E22" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="G22" t="s">
         <v>13</v>
       </c>
       <c r="H22" t="s">
-        <v>36</v>
+        <v>385</v>
       </c>
       <c r="K22" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="L22" t="s">
         <v>14</v>
@@ -2920,13 +2927,13 @@
         <v>15</v>
       </c>
       <c r="N22" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="O22" t="s">
         <v>19</v>
       </c>
       <c r="Q22" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="R22" t="s">
         <v>18</v>
@@ -2940,10 +2947,10 @@
         <v>29,1 cm</v>
       </c>
       <c r="V22" t="s">
-        <v>323</v>
+        <v>308</v>
       </c>
       <c r="W22" t="s">
-        <v>324</v>
+        <v>309</v>
       </c>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.25">
@@ -2951,25 +2958,25 @@
         <v>902</v>
       </c>
       <c r="B23" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C23" t="s">
         <v>21</v>
       </c>
       <c r="D23" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E23" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="G23" t="s">
         <v>13</v>
       </c>
       <c r="H23" t="s">
-        <v>36</v>
+        <v>385</v>
       </c>
       <c r="K23" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="L23" t="s">
         <v>14</v>
@@ -2978,13 +2985,13 @@
         <v>15</v>
       </c>
       <c r="N23" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="O23" t="s">
         <v>19</v>
       </c>
       <c r="Q23" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="R23" t="s">
         <v>18</v>
@@ -2998,10 +3005,10 @@
         <v>44,3 cm</v>
       </c>
       <c r="V23" t="s">
-        <v>325</v>
+        <v>310</v>
       </c>
       <c r="W23" t="s">
-        <v>326</v>
+        <v>311</v>
       </c>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.25">
@@ -3009,25 +3016,25 @@
         <v>903</v>
       </c>
       <c r="B24" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C24" t="s">
         <v>21</v>
       </c>
       <c r="D24" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E24" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="G24" t="s">
         <v>13</v>
       </c>
       <c r="H24" t="s">
-        <v>73</v>
+        <v>386</v>
       </c>
       <c r="K24" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="L24" t="s">
         <v>14</v>
@@ -3036,13 +3043,13 @@
         <v>15</v>
       </c>
       <c r="N24" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="O24" t="s">
         <v>19</v>
       </c>
       <c r="Q24" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="R24" t="s">
         <v>18</v>
@@ -3056,10 +3063,10 @@
         <v>37,6 cm</v>
       </c>
       <c r="V24" t="s">
-        <v>327</v>
+        <v>312</v>
       </c>
       <c r="W24" t="s">
-        <v>328</v>
+        <v>313</v>
       </c>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.25">
@@ -3067,25 +3074,25 @@
         <v>904</v>
       </c>
       <c r="B25" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C25" t="s">
         <v>21</v>
       </c>
       <c r="D25" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E25" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="G25" t="s">
         <v>13</v>
       </c>
       <c r="H25" t="s">
-        <v>36</v>
+        <v>385</v>
       </c>
       <c r="K25" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="L25" t="s">
         <v>14</v>
@@ -3094,13 +3101,13 @@
         <v>15</v>
       </c>
       <c r="N25" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="O25" t="s">
         <v>16</v>
       </c>
       <c r="Q25" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="R25" t="s">
         <v>18</v>
@@ -3114,10 +3121,10 @@
         <v>30,7 cm</v>
       </c>
       <c r="V25" t="s">
-        <v>263</v>
+        <v>249</v>
       </c>
       <c r="W25" t="s">
-        <v>329</v>
+        <v>314</v>
       </c>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.25">
@@ -3125,25 +3132,25 @@
         <v>905</v>
       </c>
       <c r="B26" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C26" t="s">
         <v>21</v>
       </c>
       <c r="D26" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E26" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="G26" t="s">
         <v>13</v>
       </c>
       <c r="H26" t="s">
-        <v>73</v>
+        <v>386</v>
       </c>
       <c r="K26" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="L26" t="s">
         <v>14</v>
@@ -3152,13 +3159,13 @@
         <v>15</v>
       </c>
       <c r="N26" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="O26" t="s">
         <v>19</v>
       </c>
       <c r="Q26" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="R26" t="s">
         <v>18</v>
@@ -3172,10 +3179,10 @@
         <v>45,5 cm</v>
       </c>
       <c r="V26" t="s">
-        <v>330</v>
+        <v>315</v>
       </c>
       <c r="W26" t="s">
-        <v>315</v>
+        <v>300</v>
       </c>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.25">
@@ -3183,25 +3190,25 @@
         <v>906</v>
       </c>
       <c r="B27" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C27" t="s">
         <v>21</v>
       </c>
       <c r="D27" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E27" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="G27" t="s">
         <v>13</v>
       </c>
       <c r="H27" t="s">
-        <v>133</v>
+        <v>389</v>
       </c>
       <c r="K27" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="L27" t="s">
         <v>14</v>
@@ -3210,13 +3217,13 @@
         <v>15</v>
       </c>
       <c r="N27" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="O27" t="s">
         <v>16</v>
       </c>
       <c r="Q27" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="R27" t="s">
         <v>18</v>
@@ -3230,10 +3237,10 @@
         <v>10,5 cm</v>
       </c>
       <c r="V27" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
       <c r="W27" t="s">
-        <v>332</v>
+        <v>317</v>
       </c>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.25">
@@ -3241,25 +3248,25 @@
         <v>907</v>
       </c>
       <c r="B28" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="C28" t="s">
         <v>21</v>
       </c>
       <c r="D28" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E28" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="G28" t="s">
         <v>13</v>
       </c>
       <c r="H28" t="s">
-        <v>138</v>
+        <v>390</v>
       </c>
       <c r="K28" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="L28" t="s">
         <v>14</v>
@@ -3268,13 +3275,13 @@
         <v>15</v>
       </c>
       <c r="N28" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="O28" t="s">
         <v>16</v>
       </c>
       <c r="Q28" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="R28" t="s">
         <v>18</v>
@@ -3288,10 +3295,10 @@
         <v>14,5 cm</v>
       </c>
       <c r="V28" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
       <c r="W28" t="s">
-        <v>333</v>
+        <v>318</v>
       </c>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.25">
@@ -3299,25 +3306,25 @@
         <v>908</v>
       </c>
       <c r="B29" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="C29" t="s">
         <v>21</v>
       </c>
       <c r="D29" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E29" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="G29" t="s">
         <v>13</v>
       </c>
       <c r="H29" t="s">
-        <v>36</v>
+        <v>385</v>
       </c>
       <c r="K29" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="L29" t="s">
         <v>14</v>
@@ -3326,13 +3333,13 @@
         <v>15</v>
       </c>
       <c r="N29" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="O29" t="s">
         <v>19</v>
       </c>
       <c r="Q29" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="R29" t="s">
         <v>18</v>
@@ -3346,10 +3353,10 @@
         <v>57,2 cm</v>
       </c>
       <c r="V29" t="s">
-        <v>334</v>
+        <v>319</v>
       </c>
       <c r="W29" t="s">
-        <v>335</v>
+        <v>320</v>
       </c>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.25">
@@ -3357,25 +3364,25 @@
         <v>909</v>
       </c>
       <c r="B30" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="C30" t="s">
         <v>21</v>
       </c>
       <c r="D30" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E30" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="G30" t="s">
         <v>13</v>
       </c>
       <c r="H30" t="s">
-        <v>108</v>
+        <v>387</v>
       </c>
       <c r="K30" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="L30" t="s">
         <v>14</v>
@@ -3384,13 +3391,13 @@
         <v>15</v>
       </c>
       <c r="N30" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="O30" t="s">
         <v>19</v>
       </c>
       <c r="Q30" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="R30" t="s">
         <v>18</v>
@@ -3404,10 +3411,10 @@
         <v>39,1 cm</v>
       </c>
       <c r="V30" t="s">
-        <v>336</v>
+        <v>321</v>
       </c>
       <c r="W30" t="s">
-        <v>337</v>
+        <v>322</v>
       </c>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.25">
@@ -3415,16 +3422,16 @@
         <v>910</v>
       </c>
       <c r="B31" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="C31" t="s">
         <v>21</v>
       </c>
       <c r="D31" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E31" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="F31" t="s">
         <v>32</v>
@@ -3433,10 +3440,10 @@
         <v>13</v>
       </c>
       <c r="H31" t="s">
-        <v>149</v>
+        <v>391</v>
       </c>
       <c r="K31" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="L31" t="s">
         <v>14</v>
@@ -3445,7 +3452,7 @@
         <v>15</v>
       </c>
       <c r="N31" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="O31" t="s">
         <v>19</v>
@@ -3465,10 +3472,10 @@
         <v>60,4 cm</v>
       </c>
       <c r="V31" t="s">
-        <v>338</v>
+        <v>323</v>
       </c>
       <c r="W31" t="s">
-        <v>339</v>
+        <v>324</v>
       </c>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.25">
@@ -3476,16 +3483,16 @@
         <v>911</v>
       </c>
       <c r="B32" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="C32" t="s">
         <v>21</v>
       </c>
       <c r="D32" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E32" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="F32" t="s">
         <v>32</v>
@@ -3494,10 +3501,10 @@
         <v>13</v>
       </c>
       <c r="H32" t="s">
-        <v>73</v>
+        <v>386</v>
       </c>
       <c r="K32" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="L32" t="s">
         <v>14</v>
@@ -3506,7 +3513,7 @@
         <v>15</v>
       </c>
       <c r="N32" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="O32" t="s">
         <v>19</v>
@@ -3526,10 +3533,10 @@
         <v>49,9 cm</v>
       </c>
       <c r="V32" t="s">
-        <v>340</v>
+        <v>325</v>
       </c>
       <c r="W32" t="s">
-        <v>341</v>
+        <v>326</v>
       </c>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.25">
@@ -3537,16 +3544,16 @@
         <v>912</v>
       </c>
       <c r="B33" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="C33" t="s">
         <v>21</v>
       </c>
       <c r="D33" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E33" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="F33" t="s">
         <v>32</v>
@@ -3555,10 +3562,10 @@
         <v>13</v>
       </c>
       <c r="H33" t="s">
-        <v>41</v>
+        <v>392</v>
       </c>
       <c r="K33" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="L33" t="s">
         <v>14</v>
@@ -3567,7 +3574,7 @@
         <v>15</v>
       </c>
       <c r="N33" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="O33" t="s">
         <v>19</v>
@@ -3587,10 +3594,10 @@
         <v>38,7 cm</v>
       </c>
       <c r="V33" t="s">
-        <v>342</v>
+        <v>327</v>
       </c>
       <c r="W33" t="s">
-        <v>343</v>
+        <v>328</v>
       </c>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.25">
@@ -3598,16 +3605,16 @@
         <v>913</v>
       </c>
       <c r="B34" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="C34" t="s">
         <v>21</v>
       </c>
       <c r="D34" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E34" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="F34" t="s">
         <v>32</v>
@@ -3616,10 +3623,10 @@
         <v>13</v>
       </c>
       <c r="H34" t="s">
-        <v>73</v>
+        <v>386</v>
       </c>
       <c r="K34" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="L34" t="s">
         <v>14</v>
@@ -3628,7 +3635,7 @@
         <v>15</v>
       </c>
       <c r="N34" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="O34" t="s">
         <v>19</v>
@@ -3648,10 +3655,10 @@
         <v>86,0 cm</v>
       </c>
       <c r="V34" t="s">
-        <v>344</v>
+        <v>329</v>
       </c>
       <c r="W34" t="s">
-        <v>345</v>
+        <v>330</v>
       </c>
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.25">
@@ -3659,16 +3666,16 @@
         <v>914</v>
       </c>
       <c r="B35" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="C35" t="s">
         <v>21</v>
       </c>
       <c r="D35" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E35" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="F35" t="s">
         <v>32</v>
@@ -3677,10 +3684,10 @@
         <v>13</v>
       </c>
       <c r="H35" t="s">
-        <v>73</v>
+        <v>386</v>
       </c>
       <c r="K35" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="L35" t="s">
         <v>14</v>
@@ -3689,7 +3696,7 @@
         <v>15</v>
       </c>
       <c r="N35" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="O35" t="s">
         <v>19</v>
@@ -3709,10 +3716,10 @@
         <v>43,0 cm</v>
       </c>
       <c r="V35" t="s">
-        <v>346</v>
+        <v>331</v>
       </c>
       <c r="W35" t="s">
-        <v>347</v>
+        <v>332</v>
       </c>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.25">
@@ -3720,16 +3727,16 @@
         <v>915</v>
       </c>
       <c r="B36" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="C36" t="s">
         <v>21</v>
       </c>
       <c r="D36" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E36" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="F36" t="s">
         <v>32</v>
@@ -3738,10 +3745,10 @@
         <v>13</v>
       </c>
       <c r="H36" t="s">
-        <v>73</v>
+        <v>386</v>
       </c>
       <c r="K36" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="L36" t="s">
         <v>14</v>
@@ -3750,7 +3757,7 @@
         <v>15</v>
       </c>
       <c r="N36" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="O36" t="s">
         <v>19</v>
@@ -3770,10 +3777,10 @@
         <v>47,0 cm</v>
       </c>
       <c r="V36" t="s">
-        <v>348</v>
+        <v>333</v>
       </c>
       <c r="W36" t="s">
-        <v>349</v>
+        <v>334</v>
       </c>
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.25">
@@ -3781,16 +3788,16 @@
         <v>916</v>
       </c>
       <c r="B37" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="C37" t="s">
         <v>21</v>
       </c>
       <c r="D37" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E37" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="F37" t="s">
         <v>32</v>
@@ -3799,10 +3806,10 @@
         <v>13</v>
       </c>
       <c r="H37" t="s">
-        <v>73</v>
+        <v>386</v>
       </c>
       <c r="K37" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="L37" t="s">
         <v>14</v>
@@ -3811,7 +3818,7 @@
         <v>15</v>
       </c>
       <c r="N37" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="O37" t="s">
         <v>19</v>
@@ -3834,10 +3841,10 @@
         <v>69,0 cm</v>
       </c>
       <c r="V37" t="s">
-        <v>350</v>
+        <v>335</v>
       </c>
       <c r="W37" t="s">
-        <v>351</v>
+        <v>336</v>
       </c>
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.25">
@@ -3845,16 +3852,16 @@
         <v>917</v>
       </c>
       <c r="B38" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C38" t="s">
         <v>21</v>
       </c>
       <c r="D38" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E38" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="F38" t="s">
         <v>32</v>
@@ -3863,10 +3870,10 @@
         <v>13</v>
       </c>
       <c r="H38" t="s">
-        <v>164</v>
+        <v>393</v>
       </c>
       <c r="K38" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="L38" t="s">
         <v>14</v>
@@ -3875,7 +3882,7 @@
         <v>15</v>
       </c>
       <c r="N38" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="O38" t="s">
         <v>16</v>
@@ -3898,10 +3905,10 @@
         <v>86,0 cm</v>
       </c>
       <c r="V38" t="s">
-        <v>352</v>
+        <v>337</v>
       </c>
       <c r="W38" t="s">
-        <v>345</v>
+        <v>330</v>
       </c>
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.25">
@@ -3909,28 +3916,28 @@
         <v>918</v>
       </c>
       <c r="B39" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="C39" t="s">
         <v>21</v>
       </c>
       <c r="D39" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E39" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="F39" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G39" t="s">
         <v>13</v>
       </c>
       <c r="H39" t="s">
-        <v>73</v>
+        <v>386</v>
       </c>
       <c r="K39" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="L39" t="s">
         <v>14</v>
@@ -3939,13 +3946,13 @@
         <v>15</v>
       </c>
       <c r="N39" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="O39" t="s">
         <v>16</v>
       </c>
       <c r="Q39" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="R39" t="s">
         <v>23</v>
@@ -3959,10 +3966,10 @@
         <v>81,5 cm</v>
       </c>
       <c r="V39" t="s">
-        <v>353</v>
+        <v>338</v>
       </c>
       <c r="W39" t="s">
-        <v>354</v>
+        <v>339</v>
       </c>
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.25">
@@ -3970,25 +3977,25 @@
         <v>919</v>
       </c>
       <c r="B40" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="C40" t="s">
         <v>21</v>
       </c>
       <c r="D40" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E40" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="G40" t="s">
         <v>13</v>
       </c>
       <c r="H40" t="s">
-        <v>73</v>
+        <v>386</v>
       </c>
       <c r="K40" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="L40" t="s">
         <v>14</v>
@@ -3997,7 +4004,7 @@
         <v>15</v>
       </c>
       <c r="N40" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="O40" t="s">
         <v>19</v>
@@ -4017,10 +4024,10 @@
         <v>77,0 cm</v>
       </c>
       <c r="V40" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="W40" t="s">
-        <v>355</v>
+        <v>340</v>
       </c>
     </row>
     <row r="41" spans="1:23" x14ac:dyDescent="0.25">
@@ -4028,28 +4035,28 @@
         <v>920</v>
       </c>
       <c r="B41" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="C41" t="s">
         <v>21</v>
       </c>
       <c r="D41" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E41" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="F41" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="G41" t="s">
         <v>13</v>
       </c>
       <c r="H41" t="s">
-        <v>73</v>
+        <v>386</v>
       </c>
       <c r="K41" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="L41" t="s">
         <v>14</v>
@@ -4058,7 +4065,7 @@
         <v>15</v>
       </c>
       <c r="N41" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="O41" t="s">
         <v>19</v>
@@ -4078,10 +4085,10 @@
         <v>95,2 cm</v>
       </c>
       <c r="V41" t="s">
-        <v>356</v>
+        <v>341</v>
       </c>
       <c r="W41" t="s">
-        <v>357</v>
+        <v>342</v>
       </c>
     </row>
     <row r="42" spans="1:23" x14ac:dyDescent="0.25">
@@ -4089,25 +4096,25 @@
         <v>921</v>
       </c>
       <c r="B42" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="C42" t="s">
         <v>21</v>
       </c>
       <c r="D42" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E42" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="G42" t="s">
         <v>13</v>
       </c>
       <c r="H42" t="s">
-        <v>179</v>
+        <v>394</v>
       </c>
       <c r="K42" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="L42" t="s">
         <v>14</v>
@@ -4116,13 +4123,13 @@
         <v>15</v>
       </c>
       <c r="N42" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="O42" t="s">
         <v>19</v>
       </c>
       <c r="Q42" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="T42" t="str">
         <f t="shared" si="0"/>
@@ -4133,10 +4140,10 @@
         <v>77,0 cm</v>
       </c>
       <c r="V42" t="s">
-        <v>344</v>
+        <v>329</v>
       </c>
       <c r="W42" t="s">
-        <v>355</v>
+        <v>340</v>
       </c>
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.25">
@@ -4144,25 +4151,25 @@
         <v>922</v>
       </c>
       <c r="B43" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="C43" t="s">
         <v>21</v>
       </c>
       <c r="D43" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E43" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="G43" t="s">
         <v>13</v>
       </c>
       <c r="H43" t="s">
-        <v>184</v>
+        <v>395</v>
       </c>
       <c r="K43" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="L43" t="s">
         <v>14</v>
@@ -4171,7 +4178,7 @@
         <v>15</v>
       </c>
       <c r="N43" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="O43" t="s">
         <v>16</v>
@@ -4191,10 +4198,10 @@
         <v>80,0 cm</v>
       </c>
       <c r="V43" t="s">
-        <v>358</v>
+        <v>343</v>
       </c>
       <c r="W43" t="s">
-        <v>359</v>
+        <v>344</v>
       </c>
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.25">
@@ -4202,25 +4209,25 @@
         <v>923</v>
       </c>
       <c r="B44" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="C44" t="s">
         <v>21</v>
       </c>
       <c r="D44" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E44" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="G44" t="s">
         <v>13</v>
       </c>
       <c r="H44" t="s">
-        <v>36</v>
+        <v>385</v>
       </c>
       <c r="K44" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="L44" t="s">
         <v>14</v>
@@ -4229,13 +4236,13 @@
         <v>15</v>
       </c>
       <c r="N44" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="O44" t="s">
         <v>20</v>
       </c>
       <c r="Q44" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="R44" t="s">
         <v>23</v>
@@ -4249,10 +4256,10 @@
         <v>60,0 cm</v>
       </c>
       <c r="V44" t="s">
-        <v>328</v>
+        <v>313</v>
       </c>
       <c r="W44" t="s">
-        <v>360</v>
+        <v>345</v>
       </c>
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.25">
@@ -4260,28 +4267,28 @@
         <v>924</v>
       </c>
       <c r="B45" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="C45" t="s">
         <v>21</v>
       </c>
       <c r="D45" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E45" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="F45" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="G45" t="s">
         <v>13</v>
       </c>
       <c r="H45" t="s">
-        <v>73</v>
+        <v>386</v>
       </c>
       <c r="K45" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="L45" t="s">
         <v>14</v>
@@ -4290,7 +4297,7 @@
         <v>15</v>
       </c>
       <c r="N45" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="O45" t="s">
         <v>16</v>
@@ -4299,7 +4306,7 @@
         <v>17</v>
       </c>
       <c r="R45" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="T45" t="str">
         <f t="shared" si="0"/>
@@ -4310,10 +4317,10 @@
         <v>48,7 cm</v>
       </c>
       <c r="V45" t="s">
-        <v>361</v>
+        <v>346</v>
       </c>
       <c r="W45" t="s">
-        <v>362</v>
+        <v>347</v>
       </c>
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.25">
@@ -4321,28 +4328,28 @@
         <v>925</v>
       </c>
       <c r="B46" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="C46" t="s">
         <v>21</v>
       </c>
       <c r="D46" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E46" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="F46" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G46" t="s">
         <v>13</v>
       </c>
       <c r="H46" t="s">
-        <v>36</v>
+        <v>385</v>
       </c>
       <c r="K46" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="L46" t="s">
         <v>14</v>
@@ -4351,13 +4358,13 @@
         <v>15</v>
       </c>
       <c r="N46" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="O46" t="s">
         <v>19</v>
       </c>
       <c r="Q46" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="R46" t="s">
         <v>35</v>
@@ -4371,10 +4378,10 @@
         <v>51,0 cm</v>
       </c>
       <c r="V46" t="s">
-        <v>363</v>
+        <v>348</v>
       </c>
       <c r="W46" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.25">
@@ -4382,16 +4389,16 @@
         <v>926</v>
       </c>
       <c r="B47" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="C47" t="s">
         <v>21</v>
       </c>
       <c r="D47" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E47" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="F47" t="s">
         <v>29</v>
@@ -4400,10 +4407,10 @@
         <v>34</v>
       </c>
       <c r="H47" t="s">
-        <v>200</v>
+        <v>396</v>
       </c>
       <c r="K47" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="L47" t="s">
         <v>14</v>
@@ -4412,13 +4419,13 @@
         <v>15</v>
       </c>
       <c r="N47" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="O47" t="s">
         <v>16</v>
       </c>
       <c r="Q47" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="R47" t="s">
         <v>22</v>
@@ -4432,10 +4439,10 @@
         <v>34,0 cm</v>
       </c>
       <c r="V47" t="s">
-        <v>364</v>
+        <v>349</v>
       </c>
       <c r="W47" t="s">
-        <v>365</v>
+        <v>350</v>
       </c>
     </row>
     <row r="48" spans="1:23" x14ac:dyDescent="0.25">
@@ -4443,16 +4450,16 @@
         <v>927</v>
       </c>
       <c r="B48" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="C48" t="s">
         <v>21</v>
       </c>
       <c r="D48" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E48" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="F48" t="s">
         <v>33</v>
@@ -4461,10 +4468,10 @@
         <v>34</v>
       </c>
       <c r="H48" t="s">
-        <v>73</v>
+        <v>386</v>
       </c>
       <c r="K48" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="L48" t="s">
         <v>14</v>
@@ -4473,13 +4480,13 @@
         <v>15</v>
       </c>
       <c r="N48" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="O48" t="s">
         <v>16</v>
       </c>
       <c r="Q48" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="R48" t="s">
         <v>23</v>
@@ -4493,10 +4500,10 @@
         <v>58,8 cm</v>
       </c>
       <c r="V48" t="s">
-        <v>366</v>
+        <v>351</v>
       </c>
       <c r="W48" t="s">
-        <v>367</v>
+        <v>352</v>
       </c>
     </row>
     <row r="49" spans="1:23" x14ac:dyDescent="0.25">
@@ -4504,16 +4511,16 @@
         <v>928</v>
       </c>
       <c r="B49" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="C49" t="s">
         <v>21</v>
       </c>
       <c r="D49" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="F49" t="s">
         <v>28</v>
@@ -4522,10 +4529,10 @@
         <v>13</v>
       </c>
       <c r="H49" t="s">
-        <v>36</v>
+        <v>385</v>
       </c>
       <c r="K49" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="L49" t="s">
         <v>14</v>
@@ -4534,13 +4541,13 @@
         <v>15</v>
       </c>
       <c r="N49" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="O49" t="s">
         <v>19</v>
       </c>
       <c r="Q49" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="R49" t="s">
         <v>23</v>
@@ -4554,10 +4561,10 @@
         <v>53,5 cm</v>
       </c>
       <c r="V49" t="s">
-        <v>348</v>
+        <v>333</v>
       </c>
       <c r="W49" t="s">
-        <v>368</v>
+        <v>353</v>
       </c>
     </row>
     <row r="50" spans="1:23" x14ac:dyDescent="0.25">
@@ -4565,28 +4572,28 @@
         <v>929</v>
       </c>
       <c r="B50" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="C50" t="s">
         <v>21</v>
       </c>
       <c r="D50" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E50" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="F50" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="G50" t="s">
         <v>13</v>
       </c>
       <c r="H50" t="s">
-        <v>73</v>
+        <v>386</v>
       </c>
       <c r="K50" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="L50" t="s">
         <v>14</v>
@@ -4595,7 +4602,7 @@
         <v>15</v>
       </c>
       <c r="N50" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="O50" t="s">
         <v>19</v>
@@ -4615,10 +4622,10 @@
         <v>55,0 cm</v>
       </c>
       <c r="V50" t="s">
-        <v>369</v>
+        <v>354</v>
       </c>
       <c r="W50" t="s">
-        <v>370</v>
+        <v>355</v>
       </c>
     </row>
     <row r="51" spans="1:23" x14ac:dyDescent="0.25">
@@ -4626,25 +4633,25 @@
         <v>930</v>
       </c>
       <c r="B51" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="C51" t="s">
         <v>21</v>
       </c>
       <c r="D51" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E51" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="G51" t="s">
         <v>13</v>
       </c>
       <c r="H51" t="s">
-        <v>73</v>
+        <v>386</v>
       </c>
       <c r="K51" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="L51" t="s">
         <v>14</v>
@@ -4653,13 +4660,13 @@
         <v>15</v>
       </c>
       <c r="N51" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="O51" t="s">
         <v>19</v>
       </c>
       <c r="Q51" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="R51" t="s">
         <v>18</v>
@@ -4673,10 +4680,10 @@
         <v>64,0 cm</v>
       </c>
       <c r="V51" t="s">
-        <v>344</v>
+        <v>329</v>
       </c>
       <c r="W51" t="s">
-        <v>371</v>
+        <v>356</v>
       </c>
     </row>
     <row r="52" spans="1:23" x14ac:dyDescent="0.25">
@@ -4684,25 +4691,25 @@
         <v>931</v>
       </c>
       <c r="B52" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="C52" t="s">
         <v>21</v>
       </c>
       <c r="D52" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E52" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
       <c r="G52" t="s">
         <v>13</v>
       </c>
       <c r="H52" t="s">
-        <v>73</v>
+        <v>386</v>
       </c>
       <c r="K52" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="L52" t="s">
         <v>14</v>
@@ -4711,13 +4718,13 @@
         <v>15</v>
       </c>
       <c r="N52" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="O52" t="s">
         <v>19</v>
       </c>
       <c r="Q52" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="R52" t="s">
         <v>18</v>
@@ -4731,10 +4738,10 @@
         <v>57,0 cm</v>
       </c>
       <c r="V52" t="s">
-        <v>372</v>
+        <v>357</v>
       </c>
       <c r="W52" t="s">
-        <v>373</v>
+        <v>358</v>
       </c>
     </row>
     <row r="53" spans="1:23" x14ac:dyDescent="0.25">
@@ -4742,25 +4749,25 @@
         <v>932</v>
       </c>
       <c r="B53" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="C53" t="s">
         <v>21</v>
       </c>
       <c r="D53" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E53" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="G53" t="s">
         <v>13</v>
       </c>
       <c r="H53" t="s">
-        <v>112</v>
+        <v>388</v>
       </c>
       <c r="K53" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="L53" t="s">
         <v>14</v>
@@ -4769,7 +4776,7 @@
         <v>15</v>
       </c>
       <c r="N53" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="O53" t="s">
         <v>19</v>
@@ -4789,10 +4796,10 @@
         <v>69,5 cm</v>
       </c>
       <c r="V53" t="s">
-        <v>374</v>
+        <v>359</v>
       </c>
       <c r="W53" t="s">
-        <v>375</v>
+        <v>360</v>
       </c>
     </row>
     <row r="54" spans="1:23" x14ac:dyDescent="0.25">
@@ -4800,28 +4807,28 @@
         <v>933</v>
       </c>
       <c r="B54" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="C54" t="s">
         <v>21</v>
       </c>
       <c r="D54" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E54" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="F54" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G54" t="s">
         <v>13</v>
       </c>
       <c r="H54" t="s">
-        <v>36</v>
+        <v>385</v>
       </c>
       <c r="K54" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="L54" t="s">
         <v>14</v>
@@ -4830,13 +4837,13 @@
         <v>15</v>
       </c>
       <c r="N54" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="O54" t="s">
         <v>16</v>
       </c>
       <c r="Q54" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="R54" t="s">
         <v>18</v>
@@ -4850,10 +4857,10 @@
         <v>50,3 cm</v>
       </c>
       <c r="V54" t="s">
-        <v>376</v>
+        <v>361</v>
       </c>
       <c r="W54" t="s">
-        <v>377</v>
+        <v>362</v>
       </c>
     </row>
     <row r="55" spans="1:23" x14ac:dyDescent="0.25">
@@ -4861,16 +4868,16 @@
         <v>934</v>
       </c>
       <c r="B55" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
       <c r="C55" t="s">
         <v>21</v>
       </c>
       <c r="D55" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E55" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="F55" t="s">
         <v>31</v>
@@ -4879,10 +4886,10 @@
         <v>13</v>
       </c>
       <c r="H55" t="s">
-        <v>36</v>
+        <v>385</v>
       </c>
       <c r="K55" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="L55" t="s">
         <v>14</v>
@@ -4891,13 +4898,13 @@
         <v>15</v>
       </c>
       <c r="N55" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="O55" t="s">
         <v>19</v>
       </c>
       <c r="Q55" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="R55" t="s">
         <v>23</v>
@@ -4911,10 +4918,10 @@
         <v>42,1 cm</v>
       </c>
       <c r="V55" t="s">
-        <v>378</v>
+        <v>363</v>
       </c>
       <c r="W55" t="s">
-        <v>379</v>
+        <v>364</v>
       </c>
     </row>
     <row r="56" spans="1:23" x14ac:dyDescent="0.25">
@@ -4922,25 +4929,25 @@
         <v>935</v>
       </c>
       <c r="B56" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="C56" t="s">
         <v>21</v>
       </c>
       <c r="D56" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E56" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
       <c r="G56" t="s">
         <v>13</v>
       </c>
       <c r="H56" t="s">
-        <v>73</v>
+        <v>386</v>
       </c>
       <c r="K56" t="s">
-        <v>232</v>
+        <v>219</v>
       </c>
       <c r="L56" t="s">
         <v>14</v>
@@ -4949,7 +4956,7 @@
         <v>15</v>
       </c>
       <c r="N56" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="O56" t="s">
         <v>19</v>
@@ -4969,10 +4976,10 @@
         <v>68,6 cm</v>
       </c>
       <c r="V56" t="s">
-        <v>380</v>
+        <v>365</v>
       </c>
       <c r="W56" t="s">
-        <v>381</v>
+        <v>366</v>
       </c>
     </row>
     <row r="57" spans="1:23" x14ac:dyDescent="0.25">
@@ -4980,16 +4987,16 @@
         <v>936</v>
       </c>
       <c r="B57" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="C57" t="s">
         <v>21</v>
       </c>
       <c r="D57" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E57" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="F57" t="s">
         <v>25</v>
@@ -4998,10 +5005,10 @@
         <v>13</v>
       </c>
       <c r="H57" t="s">
-        <v>73</v>
+        <v>386</v>
       </c>
       <c r="K57" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
       <c r="L57" t="s">
         <v>14</v>
@@ -5010,13 +5017,13 @@
         <v>15</v>
       </c>
       <c r="N57" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="O57" t="s">
         <v>16</v>
       </c>
       <c r="Q57" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="R57" t="s">
         <v>23</v>
@@ -5030,10 +5037,10 @@
         <v>56,5 cm</v>
       </c>
       <c r="V57" t="s">
-        <v>382</v>
+        <v>367</v>
       </c>
       <c r="W57" t="s">
-        <v>344</v>
+        <v>329</v>
       </c>
     </row>
     <row r="58" spans="1:23" x14ac:dyDescent="0.25">
@@ -5041,28 +5048,28 @@
         <v>937</v>
       </c>
       <c r="B58" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="C58" t="s">
         <v>21</v>
       </c>
       <c r="D58" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E58" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="F58" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G58" t="s">
         <v>13</v>
       </c>
       <c r="H58" t="s">
-        <v>73</v>
+        <v>386</v>
       </c>
       <c r="K58" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
       <c r="L58" t="s">
         <v>14</v>
@@ -5071,13 +5078,13 @@
         <v>15</v>
       </c>
       <c r="N58" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="O58" t="s">
         <v>19</v>
       </c>
       <c r="Q58" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="R58" t="s">
         <v>23</v>
@@ -5091,10 +5098,10 @@
         <v>96,1 cm</v>
       </c>
       <c r="V58" t="s">
-        <v>342</v>
+        <v>327</v>
       </c>
       <c r="W58" t="s">
-        <v>383</v>
+        <v>368</v>
       </c>
     </row>
     <row r="59" spans="1:23" x14ac:dyDescent="0.25">
@@ -5102,28 +5109,28 @@
         <v>938</v>
       </c>
       <c r="B59" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="C59" t="s">
         <v>21</v>
       </c>
       <c r="D59" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E59" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="F59" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G59" t="s">
         <v>13</v>
       </c>
       <c r="H59" t="s">
-        <v>73</v>
+        <v>386</v>
       </c>
       <c r="K59" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="L59" t="s">
         <v>14</v>
@@ -5132,7 +5139,7 @@
         <v>15</v>
       </c>
       <c r="N59" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="O59" t="s">
         <v>16</v>
@@ -5152,10 +5159,10 @@
         <v>95,5 cm</v>
       </c>
       <c r="V59" t="s">
-        <v>361</v>
+        <v>346</v>
       </c>
       <c r="W59" t="s">
-        <v>384</v>
+        <v>369</v>
       </c>
     </row>
     <row r="60" spans="1:23" x14ac:dyDescent="0.25">
@@ -5163,28 +5170,28 @@
         <v>939</v>
       </c>
       <c r="B60" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="C60" t="s">
         <v>21</v>
       </c>
       <c r="D60" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E60" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="F60" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G60" t="s">
         <v>13</v>
       </c>
       <c r="H60" t="s">
-        <v>73</v>
+        <v>386</v>
       </c>
       <c r="K60" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
       <c r="L60" t="s">
         <v>14</v>
@@ -5193,7 +5200,7 @@
         <v>15</v>
       </c>
       <c r="N60" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="O60" t="s">
         <v>19</v>
@@ -5213,10 +5220,10 @@
         <v>91,7 cm</v>
       </c>
       <c r="V60" t="s">
-        <v>356</v>
+        <v>341</v>
       </c>
       <c r="W60" t="s">
-        <v>385</v>
+        <v>370</v>
       </c>
     </row>
     <row r="61" spans="1:23" x14ac:dyDescent="0.25">
@@ -5224,25 +5231,25 @@
         <v>940</v>
       </c>
       <c r="B61" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="C61" t="s">
         <v>21</v>
       </c>
       <c r="D61" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E61" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="G61" t="s">
         <v>13</v>
       </c>
       <c r="H61" t="s">
-        <v>248</v>
+        <v>397</v>
       </c>
       <c r="K61" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
       <c r="L61" t="s">
         <v>14</v>
@@ -5251,7 +5258,7 @@
         <v>15</v>
       </c>
       <c r="N61" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="O61" t="s">
         <v>19</v>
@@ -5271,10 +5278,10 @@
         <v>98,0 cm</v>
       </c>
       <c r="V61" t="s">
-        <v>386</v>
+        <v>371</v>
       </c>
       <c r="W61" t="s">
-        <v>387</v>
+        <v>372</v>
       </c>
     </row>
     <row r="62" spans="1:23" x14ac:dyDescent="0.25">
@@ -5282,25 +5289,25 @@
         <v>941</v>
       </c>
       <c r="B62" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="C62" t="s">
         <v>21</v>
       </c>
       <c r="D62" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E62" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="G62" t="s">
         <v>13</v>
       </c>
       <c r="H62" t="s">
-        <v>248</v>
+        <v>397</v>
       </c>
       <c r="K62" t="s">
-        <v>252</v>
+        <v>238</v>
       </c>
       <c r="L62" t="s">
         <v>14</v>
@@ -5309,7 +5316,7 @@
         <v>15</v>
       </c>
       <c r="N62" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="O62" t="s">
         <v>19</v>
@@ -5329,10 +5336,10 @@
         <v>66,8 cm</v>
       </c>
       <c r="V62" t="s">
-        <v>388</v>
+        <v>373</v>
       </c>
       <c r="W62" t="s">
-        <v>389</v>
+        <v>374</v>
       </c>
     </row>
     <row r="63" spans="1:23" x14ac:dyDescent="0.25">
@@ -5340,28 +5347,28 @@
         <v>942</v>
       </c>
       <c r="B63" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
       <c r="C63" t="s">
         <v>21</v>
       </c>
       <c r="D63" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E63" t="s">
-        <v>254</v>
+        <v>240</v>
       </c>
       <c r="F63" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="G63" t="s">
         <v>13</v>
       </c>
       <c r="H63" t="s">
-        <v>73</v>
+        <v>386</v>
       </c>
       <c r="K63" t="s">
-        <v>255</v>
+        <v>241</v>
       </c>
       <c r="L63" t="s">
         <v>14</v>
@@ -5370,13 +5377,13 @@
         <v>15</v>
       </c>
       <c r="N63" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="O63" t="s">
         <v>19</v>
       </c>
       <c r="Q63" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="R63" t="s">
         <v>23</v>
@@ -5390,10 +5397,10 @@
         <v>63,9 cm</v>
       </c>
       <c r="V63" t="s">
-        <v>390</v>
+        <v>375</v>
       </c>
       <c r="W63" t="s">
-        <v>391</v>
+        <v>376</v>
       </c>
     </row>
     <row r="64" spans="1:23" x14ac:dyDescent="0.25">
@@ -5401,25 +5408,25 @@
         <v>943</v>
       </c>
       <c r="B64" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
       <c r="C64" t="s">
         <v>21</v>
       </c>
       <c r="D64" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E64" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="G64" t="s">
         <v>13</v>
       </c>
       <c r="H64" t="s">
-        <v>48</v>
+        <v>398</v>
       </c>
       <c r="K64" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
       <c r="L64" t="s">
         <v>14</v>
@@ -5428,7 +5435,7 @@
         <v>15</v>
       </c>
       <c r="N64" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="O64" t="s">
         <v>16</v>
@@ -5448,10 +5455,10 @@
         <v>45,6 cm</v>
       </c>
       <c r="V64" t="s">
-        <v>392</v>
+        <v>377</v>
       </c>
       <c r="W64" t="s">
-        <v>393</v>
+        <v>378</v>
       </c>
     </row>
     <row r="65" spans="1:23" x14ac:dyDescent="0.25">
@@ -5459,28 +5466,28 @@
         <v>944</v>
       </c>
       <c r="B65" t="s">
-        <v>259</v>
+        <v>245</v>
       </c>
       <c r="C65" t="s">
         <v>21</v>
       </c>
       <c r="D65" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E65" t="s">
-        <v>260</v>
+        <v>246</v>
       </c>
       <c r="F65" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="G65" t="s">
         <v>13</v>
       </c>
       <c r="H65" t="s">
-        <v>36</v>
+        <v>385</v>
       </c>
       <c r="K65" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
       <c r="L65" t="s">
         <v>14</v>
@@ -5489,13 +5496,13 @@
         <v>15</v>
       </c>
       <c r="N65" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="O65" t="s">
         <v>19</v>
       </c>
       <c r="Q65" t="s">
-        <v>262</v>
+        <v>248</v>
       </c>
       <c r="R65" t="s">
         <v>23</v>
@@ -5509,10 +5516,10 @@
         <v>88,0 cm</v>
       </c>
       <c r="V65" t="s">
-        <v>394</v>
+        <v>379</v>
       </c>
       <c r="W65" t="s">
-        <v>395</v>
+        <v>380</v>
       </c>
     </row>
     <row r="66" spans="1:23" x14ac:dyDescent="0.25">
@@ -5526,22 +5533,22 @@
         <v>21</v>
       </c>
       <c r="D66" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E66" t="s">
-        <v>266</v>
+        <v>252</v>
       </c>
       <c r="F66" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
       <c r="G66" t="s">
         <v>13</v>
       </c>
       <c r="H66" t="s">
-        <v>267</v>
+        <v>399</v>
       </c>
       <c r="K66" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="L66" t="s">
         <v>14</v>
@@ -5550,13 +5557,13 @@
         <v>15</v>
       </c>
       <c r="N66" t="s">
-        <v>265</v>
+        <v>251</v>
       </c>
       <c r="O66" t="s">
         <v>16</v>
       </c>
       <c r="Q66" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="R66" t="s">
         <v>23</v>
@@ -5570,10 +5577,10 @@
         <v>104,6cm</v>
       </c>
       <c r="V66" t="s">
-        <v>342</v>
+        <v>327</v>
       </c>
       <c r="W66" t="s">
-        <v>396</v>
+        <v>381</v>
       </c>
     </row>
     <row r="67" spans="1:23" x14ac:dyDescent="0.25">
@@ -5587,19 +5594,19 @@
         <v>21</v>
       </c>
       <c r="D67" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E67" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="F67" t="s">
         <v>24</v>
       </c>
       <c r="H67" t="s">
-        <v>149</v>
+        <v>391</v>
       </c>
       <c r="K67" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="L67" t="s">
         <v>14</v>
@@ -5608,13 +5615,13 @@
         <v>15</v>
       </c>
       <c r="N67" t="s">
-        <v>265</v>
+        <v>251</v>
       </c>
       <c r="O67" t="s">
         <v>16</v>
       </c>
       <c r="Q67" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="R67" t="s">
         <v>23</v>
@@ -5628,10 +5635,10 @@
         <v>103,8cm</v>
       </c>
       <c r="V67" t="s">
-        <v>397</v>
+        <v>382</v>
       </c>
       <c r="W67" t="s">
-        <v>398</v>
+        <v>383</v>
       </c>
     </row>
     <row r="68" spans="1:23" x14ac:dyDescent="0.25">
@@ -5639,25 +5646,25 @@
         <v>1929</v>
       </c>
       <c r="B68" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C68" t="s">
         <v>21</v>
       </c>
       <c r="D68" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E68" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="F68" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="H68" t="s">
-        <v>267</v>
+        <v>399</v>
       </c>
       <c r="K68" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
       <c r="L68" t="s">
         <v>14</v>
@@ -5666,13 +5673,13 @@
         <v>15</v>
       </c>
       <c r="N68" t="s">
-        <v>265</v>
+        <v>251</v>
       </c>
       <c r="O68" t="s">
         <v>20</v>
       </c>
       <c r="Q68" t="s">
-        <v>264</v>
+        <v>250</v>
       </c>
       <c r="R68" t="s">
         <v>23</v>
@@ -5686,10 +5693,10 @@
         <v>98,0 cm</v>
       </c>
       <c r="V68" t="s">
-        <v>399</v>
+        <v>384</v>
       </c>
       <c r="W68" t="s">
-        <v>387</v>
+        <v>372</v>
       </c>
     </row>
   </sheetData>
